--- a/data/IOH.xlsx
+++ b/data/IOH.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabouri.m.AXONAPP\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9104EE4-6B04-450E-AC0F-A298489CBA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$W$109</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Sheet2!$A$1:$C$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$109</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="e3Yjvtr3f8PCe4UI0lubvxaQcVYy1xgZptzpZIvVZx8="/>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="268">
   <si>
     <t>مصاحبه شونده (الفبایی)</t>
   </si>
@@ -1038,255 +1046,53 @@
   <si>
     <t>رییس کتابخانه سلطنتی</t>
   </si>
-  <si>
-    <t xml:space="preserve">مصاحبه شونده </t>
-  </si>
-  <si>
-    <t>محل مصاحبه</t>
-  </si>
-  <si>
-    <t>کشور</t>
-  </si>
-  <si>
-    <t>به تزدا</t>
-  </si>
-  <si>
-    <t>نورفولک</t>
-  </si>
-  <si>
-    <t>پاریس</t>
-  </si>
-  <si>
-    <t>کن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">امیرخسرو افشار قاسملو </t>
-  </si>
-  <si>
-    <t>لندن</t>
-  </si>
-  <si>
-    <t>انگلیس</t>
-  </si>
-  <si>
-    <t>واشنگتن دی سی</t>
-  </si>
-  <si>
-    <t>آناندل</t>
-  </si>
-  <si>
-    <t>صادق امیرعزیزی</t>
-  </si>
-  <si>
-    <t>کان</t>
-  </si>
-  <si>
-    <t>فرانکین لیک نیوجرزی – امریکا</t>
-  </si>
-  <si>
-    <t>نیس</t>
-  </si>
-  <si>
-    <t>وین</t>
-  </si>
-  <si>
-    <t>اتریش</t>
-  </si>
-  <si>
-    <t>لوشن</t>
-  </si>
-  <si>
-    <t>مریلند</t>
-  </si>
-  <si>
-    <t>فیرفاکس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابوالقاسم خردجو </t>
-  </si>
-  <si>
-    <t>چوی چیس</t>
-  </si>
-  <si>
-    <t>ماساچوست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد درخشش </t>
-  </si>
-  <si>
-    <t>نیویورک</t>
-  </si>
-  <si>
-    <t>دهکده اور سور واز</t>
-  </si>
-  <si>
-    <t>شرمن اوکس</t>
-  </si>
-  <si>
-    <t>مونترو</t>
-  </si>
-  <si>
-    <t>سوئیس</t>
-  </si>
-  <si>
-    <t>اردشیر زاهدی</t>
-  </si>
-  <si>
-    <t>مسیر مونترو تا برن</t>
-  </si>
-  <si>
-    <t>آرلینگتون ویرجینیا</t>
-  </si>
-  <si>
-    <t>چیکو</t>
-  </si>
-  <si>
-    <t>کمبریج</t>
-  </si>
-  <si>
-    <t>علی اصغر صدر حاج سیدجوادی</t>
-  </si>
-  <si>
-    <t>واشنگتن</t>
-  </si>
-  <si>
-    <t>پالم بیج فلوریدا</t>
-  </si>
-  <si>
-    <t>غلامعلی فریور</t>
-  </si>
-  <si>
-    <t>هرمز قریب</t>
-  </si>
-  <si>
-    <t>لوزان</t>
-  </si>
-  <si>
-    <t>موراگا</t>
-  </si>
-  <si>
-    <t>لاس وگاس</t>
-  </si>
-  <si>
-    <t>فریدون کشاورز</t>
-  </si>
-  <si>
-    <t>الکزاندریا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اکبر لاجوردی </t>
-  </si>
-  <si>
-    <t>هوستون</t>
-  </si>
-  <si>
-    <t>لس آنجلس</t>
-  </si>
-  <si>
-    <t>توسان</t>
-  </si>
-  <si>
-    <t>آکسفورد</t>
-  </si>
-  <si>
-    <t>احمد مدنی</t>
-  </si>
-  <si>
-    <t>پوتو حومه پاریس</t>
-  </si>
-  <si>
-    <t>هیلز بارو</t>
-  </si>
-  <si>
-    <t>سن مارتین</t>
-  </si>
-  <si>
-    <t>هلند</t>
-  </si>
-  <si>
-    <t>سانتا مونیکا</t>
-  </si>
-  <si>
-    <t>ژنو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسن  نزیه </t>
-  </si>
-  <si>
-    <t>منوچهر هزارخانی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دزموند هارنی </t>
-  </si>
-  <si>
-    <t>هادنهام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">پیتر رمز باتم </t>
-  </si>
-  <si>
-    <t>الینگتون</t>
-  </si>
-  <si>
-    <t>میکونوس</t>
-  </si>
-  <si>
-    <t>یونان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ویلیام میلر </t>
-  </si>
-  <si>
-    <t>مدفورد</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1294,7 +1100,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1304,118 +1110,73 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1605,41 +1366,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.0"/>
-    <col customWidth="1" min="2" max="2" width="71.71"/>
-    <col customWidth="1" min="3" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="10.57"/>
-    <col customWidth="1" min="7" max="7" width="12.43"/>
-    <col customWidth="1" min="8" max="8" width="12.86"/>
-    <col customWidth="1" min="9" max="10" width="12.29"/>
-    <col customWidth="1" min="11" max="13" width="19.43"/>
-    <col customWidth="1" min="14" max="14" width="12.29"/>
-    <col customWidth="1" min="15" max="15" width="19.29"/>
-    <col customWidth="1" min="16" max="16" width="11.14"/>
-    <col customWidth="1" min="17" max="22" width="8.71"/>
-    <col customWidth="1" min="23" max="23" width="13.71"/>
-    <col customWidth="1" min="24" max="35" width="8.71"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="35" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1483,7 @@
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:35" ht="45">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1730,18 +1491,18 @@
         <v>24</v>
       </c>
       <c r="C2" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="S2" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="60">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -1749,14 +1510,14 @@
         <v>26</v>
       </c>
       <c r="C3" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>27</v>
@@ -1768,10 +1529,10 @@
         <v>29</v>
       </c>
       <c r="S3" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="30">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -1779,17 +1540,17 @@
         <v>31</v>
       </c>
       <c r="C4" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="60">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
@@ -1797,21 +1558,21 @@
         <v>33</v>
       </c>
       <c r="C5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="10"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:35" ht="150">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -1819,17 +1580,17 @@
         <v>35</v>
       </c>
       <c r="C6" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="10"/>
       <c r="S6" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="30">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1837,26 +1598,26 @@
         <v>37</v>
       </c>
       <c r="C7" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="S7" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="60">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
@@ -1864,22 +1625,22 @@
         <v>39</v>
       </c>
       <c r="C8" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="S8" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="60">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -1887,23 +1648,23 @@
         <v>42</v>
       </c>
       <c r="C9" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>43</v>
       </c>
       <c r="S9" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="75">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -1911,16 +1672,16 @@
         <v>45</v>
       </c>
       <c r="C10" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>46</v>
@@ -1929,10 +1690,10 @@
         <v>28</v>
       </c>
       <c r="S10" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="45">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -1940,19 +1701,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S11" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="75">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -1960,20 +1721,20 @@
         <v>50</v>
       </c>
       <c r="C12" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="10"/>
       <c r="S12" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="30">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1981,13 +1742,13 @@
         <v>52</v>
       </c>
       <c r="C13" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:35" ht="30">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
@@ -1995,10 +1756,10 @@
         <v>54</v>
       </c>
       <c r="C14" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="60">
       <c r="A15" s="8" t="s">
         <v>55</v>
       </c>
@@ -2006,13 +1767,13 @@
         <v>56</v>
       </c>
       <c r="C15" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>57</v>
@@ -2024,10 +1785,10 @@
         <v>43</v>
       </c>
       <c r="S15" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="60">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -2035,10 +1796,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>61</v>
@@ -2050,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="S16" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="45">
       <c r="A17" s="8" t="s">
         <v>62</v>
       </c>
@@ -2064,20 +1825,20 @@
         <v>63</v>
       </c>
       <c r="C17" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S17" s="11"/>
       <c r="T17" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="75">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -2085,20 +1846,20 @@
         <v>65</v>
       </c>
       <c r="C18" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>66</v>
       </c>
       <c r="S18" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="45">
       <c r="A19" s="8" t="s">
         <v>67</v>
       </c>
@@ -2106,23 +1867,23 @@
         <v>68</v>
       </c>
       <c r="C19" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="45">
       <c r="A20" s="8" t="s">
         <v>69</v>
       </c>
@@ -2130,20 +1891,20 @@
         <v>70</v>
       </c>
       <c r="C20" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="11"/>
       <c r="T20" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>71</v>
       </c>
@@ -2151,10 +1912,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>73</v>
@@ -2163,10 +1924,10 @@
         <v>28</v>
       </c>
       <c r="S21" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>74</v>
       </c>
@@ -2174,16 +1935,16 @@
         <v>75</v>
       </c>
       <c r="C22" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>76</v>
       </c>
@@ -2191,16 +1952,16 @@
         <v>77</v>
       </c>
       <c r="C23" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>78</v>
       </c>
@@ -2208,23 +1969,23 @@
         <v>79</v>
       </c>
       <c r="C24" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>80</v>
       </c>
       <c r="S24" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>81</v>
       </c>
@@ -2232,17 +1993,17 @@
         <v>82</v>
       </c>
       <c r="C25" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="10"/>
       <c r="S25" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>83</v>
       </c>
@@ -2250,17 +2011,17 @@
         <v>84</v>
       </c>
       <c r="C26" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>85</v>
       </c>
       <c r="S26" s="11"/>
       <c r="T26" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>86</v>
       </c>
@@ -2268,17 +2029,17 @@
         <v>87</v>
       </c>
       <c r="C27" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>46</v>
@@ -2287,10 +2048,10 @@
         <v>28</v>
       </c>
       <c r="S27" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>88</v>
       </c>
@@ -2298,20 +2059,20 @@
         <v>89</v>
       </c>
       <c r="C28" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>90</v>
       </c>
       <c r="S28" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>91</v>
       </c>
@@ -2319,10 +2080,10 @@
         <v>92</v>
       </c>
       <c r="C29" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="11" t="s">
@@ -2332,10 +2093,10 @@
         <v>28</v>
       </c>
       <c r="S29" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>93</v>
       </c>
@@ -2343,7 +2104,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>95</v>
@@ -2352,7 +2113,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>97</v>
       </c>
@@ -2360,19 +2121,19 @@
         <v>98</v>
       </c>
       <c r="C31" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>99</v>
       </c>
@@ -2380,14 +2141,14 @@
         <v>100</v>
       </c>
       <c r="C32" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="11" t="s">
         <v>101</v>
       </c>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:22" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>102</v>
       </c>
@@ -2395,13 +2156,13 @@
         <v>103</v>
       </c>
       <c r="C33" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>104</v>
       </c>
@@ -2409,18 +2170,18 @@
         <v>105</v>
       </c>
       <c r="C34" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="S34" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>106</v>
       </c>
@@ -2428,13 +2189,13 @@
         <v>107</v>
       </c>
       <c r="C35" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>108</v>
       </c>
@@ -2442,17 +2203,17 @@
         <v>109</v>
       </c>
       <c r="C36" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="10"/>
       <c r="S36" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>110</v>
       </c>
@@ -2460,19 +2221,19 @@
         <v>111</v>
       </c>
       <c r="C37" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>112</v>
       </c>
       <c r="S37" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>113</v>
       </c>
@@ -2480,23 +2241,23 @@
         <v>114</v>
       </c>
       <c r="C38" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>58</v>
       </c>
       <c r="S38" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>115</v>
       </c>
@@ -2504,17 +2265,17 @@
         <v>116</v>
       </c>
       <c r="C39" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="10"/>
       <c r="S39" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>117</v>
       </c>
@@ -2522,20 +2283,20 @@
         <v>118</v>
       </c>
       <c r="C40" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>119</v>
       </c>
       <c r="S40" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>120</v>
       </c>
@@ -2543,14 +2304,14 @@
         <v>121</v>
       </c>
       <c r="C41" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>122</v>
@@ -2559,10 +2320,10 @@
         <v>90</v>
       </c>
       <c r="S41" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>123</v>
       </c>
@@ -2570,20 +2331,20 @@
         <v>124</v>
       </c>
       <c r="C42" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>95</v>
       </c>
       <c r="V42" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -2591,7 +2352,7 @@
         <v>126</v>
       </c>
       <c r="C43" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>57</v>
@@ -2601,10 +2362,10 @@
       </c>
       <c r="S43" s="11"/>
       <c r="T43" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>128</v>
       </c>
@@ -2612,10 +2373,10 @@
         <v>129</v>
       </c>
       <c r="C44" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="10"/>
       <c r="P44" s="11" t="s">
@@ -2625,10 +2386,10 @@
         <v>96</v>
       </c>
       <c r="S44" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>130</v>
       </c>
@@ -2636,26 +2397,26 @@
         <v>131</v>
       </c>
       <c r="C45" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="S45" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>132</v>
       </c>
@@ -2663,11 +2424,11 @@
         <v>133</v>
       </c>
       <c r="C46" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>134</v>
@@ -2679,10 +2440,10 @@
         <v>29</v>
       </c>
       <c r="S46" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>135</v>
       </c>
@@ -2690,7 +2451,7 @@
         <v>136</v>
       </c>
       <c r="C47" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>27</v>
@@ -2699,10 +2460,10 @@
         <v>58</v>
       </c>
       <c r="T47" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>137</v>
       </c>
@@ -2710,18 +2471,18 @@
         <v>138</v>
       </c>
       <c r="C48" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="S48" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>139</v>
       </c>
@@ -2729,24 +2490,24 @@
         <v>140</v>
       </c>
       <c r="C49" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>57</v>
@@ -2758,13 +2519,13 @@
         <v>29</v>
       </c>
       <c r="S49" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>141</v>
       </c>
@@ -2772,13 +2533,13 @@
         <v>142</v>
       </c>
       <c r="C50" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>143</v>
       </c>
@@ -2786,18 +2547,18 @@
         <v>144</v>
       </c>
       <c r="C51" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>145</v>
       </c>
@@ -2805,16 +2566,16 @@
         <v>146</v>
       </c>
       <c r="C52" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -2825,10 +2586,10 @@
         <v>148</v>
       </c>
       <c r="S52" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>149</v>
       </c>
@@ -2836,13 +2597,13 @@
         <v>150</v>
       </c>
       <c r="C53" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>151</v>
       </c>
@@ -2850,16 +2611,16 @@
         <v>152</v>
       </c>
       <c r="C54" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>153</v>
       </c>
@@ -2867,17 +2628,17 @@
         <v>154</v>
       </c>
       <c r="C55" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="10"/>
       <c r="S55" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
@@ -2885,13 +2646,13 @@
         <v>156</v>
       </c>
       <c r="C56" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>157</v>
       </c>
@@ -2899,17 +2660,17 @@
         <v>158</v>
       </c>
       <c r="C57" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="10"/>
       <c r="S57" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>159</v>
       </c>
@@ -2917,16 +2678,16 @@
         <v>160</v>
       </c>
       <c r="C58" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
@@ -2934,26 +2695,26 @@
         <v>162</v>
       </c>
       <c r="C59" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>163</v>
       </c>
@@ -2961,10 +2722,10 @@
         <v>164</v>
       </c>
       <c r="C60" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>165</v>
       </c>
@@ -2972,13 +2733,13 @@
         <v>166</v>
       </c>
       <c r="C61" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>167</v>
       </c>
@@ -2986,19 +2747,19 @@
         <v>168</v>
       </c>
       <c r="C62" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="11" t="s">
         <v>43</v>
       </c>
       <c r="S62" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>169</v>
       </c>
@@ -3006,20 +2767,20 @@
         <v>170</v>
       </c>
       <c r="C63" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S63" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>171</v>
       </c>
@@ -3027,19 +2788,19 @@
         <v>172</v>
       </c>
       <c r="C64" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>173</v>
       </c>
       <c r="T64" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>174</v>
       </c>
@@ -3047,11 +2808,11 @@
         <v>175</v>
       </c>
       <c r="C65" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>27</v>
@@ -3063,10 +2824,10 @@
         <v>101</v>
       </c>
       <c r="S65" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>176</v>
       </c>
@@ -3074,17 +2835,17 @@
         <v>177</v>
       </c>
       <c r="C66" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="10"/>
       <c r="S66" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>178</v>
       </c>
@@ -3092,14 +2853,14 @@
         <v>179</v>
       </c>
       <c r="C67" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:22" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>180</v>
       </c>
@@ -3107,14 +2868,14 @@
         <v>181</v>
       </c>
       <c r="C68" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:22" ht="15.75" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>182</v>
       </c>
@@ -3122,14 +2883,14 @@
         <v>183</v>
       </c>
       <c r="C69" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:22" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>184</v>
       </c>
@@ -3137,16 +2898,16 @@
         <v>185</v>
       </c>
       <c r="C70" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>186</v>
       </c>
@@ -3154,20 +2915,20 @@
         <v>187</v>
       </c>
       <c r="C71" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S71" s="11"/>
       <c r="T71" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>188</v>
       </c>
@@ -3175,22 +2936,22 @@
         <v>189</v>
       </c>
       <c r="C72" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S72" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V72" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>190</v>
       </c>
@@ -3198,17 +2959,17 @@
         <v>191</v>
       </c>
       <c r="C73" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O73" s="10"/>
       <c r="S73" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>192</v>
       </c>
@@ -3216,20 +2977,20 @@
         <v>193</v>
       </c>
       <c r="C74" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S74" s="11"/>
       <c r="T74" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>194</v>
       </c>
@@ -3237,10 +2998,10 @@
         <v>195</v>
       </c>
       <c r="C75" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>196</v>
@@ -3249,10 +3010,10 @@
         <v>28</v>
       </c>
       <c r="S75" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>197</v>
       </c>
@@ -3260,10 +3021,10 @@
         <v>198</v>
       </c>
       <c r="C76" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>57</v>
@@ -3272,10 +3033,10 @@
         <v>28</v>
       </c>
       <c r="S76" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="15.75" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>199</v>
       </c>
@@ -3283,17 +3044,17 @@
         <v>200</v>
       </c>
       <c r="C77" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="11" t="s">
         <v>201</v>
       </c>
       <c r="S77" s="11"/>
       <c r="T77" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="15.75" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>202</v>
       </c>
@@ -3301,23 +3062,23 @@
         <v>203</v>
       </c>
       <c r="C78" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N78" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O78" s="10"/>
       <c r="R78" s="11" t="s">
         <v>29</v>
       </c>
       <c r="S78" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>204</v>
       </c>
@@ -3325,13 +3086,13 @@
         <v>205</v>
       </c>
       <c r="C79" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:22" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>206</v>
       </c>
@@ -3339,16 +3100,16 @@
         <v>207</v>
       </c>
       <c r="C80" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S80" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>208</v>
       </c>
@@ -3356,20 +3117,20 @@
         <v>209</v>
       </c>
       <c r="C81" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V81" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>210</v>
       </c>
@@ -3377,14 +3138,14 @@
         <v>211</v>
       </c>
       <c r="C82" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="11" t="s">
         <v>85</v>
       </c>
       <c r="S82" s="11"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:22" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>212</v>
       </c>
@@ -3392,14 +3153,14 @@
         <v>213</v>
       </c>
       <c r="C83" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="10"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:22" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>214</v>
       </c>
@@ -3407,23 +3168,23 @@
         <v>215</v>
       </c>
       <c r="C84" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O84" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S84" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T84" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>216</v>
       </c>
@@ -3431,16 +3192,16 @@
         <v>217</v>
       </c>
       <c r="C85" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M85" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S85" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>218</v>
       </c>
@@ -3448,16 +3209,16 @@
         <v>219</v>
       </c>
       <c r="C86" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S86" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>220</v>
       </c>
@@ -3465,26 +3226,26 @@
         <v>221</v>
       </c>
       <c r="C87" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="S87" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>222</v>
       </c>
@@ -3492,10 +3253,10 @@
         <v>223</v>
       </c>
       <c r="C88" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O88" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>224</v>
@@ -3504,10 +3265,10 @@
         <v>28</v>
       </c>
       <c r="T88" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>225</v>
       </c>
@@ -3515,25 +3276,25 @@
         <v>226</v>
       </c>
       <c r="C89" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R89" s="11" t="s">
         <v>227</v>
       </c>
       <c r="S89" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T89" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V89" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>228</v>
       </c>
@@ -3541,16 +3302,16 @@
         <v>229</v>
       </c>
       <c r="C90" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O90" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S90" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>230</v>
       </c>
@@ -3558,19 +3319,19 @@
         <v>231</v>
       </c>
       <c r="C91" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O91" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S91" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>232</v>
       </c>
@@ -3578,10 +3339,10 @@
         <v>233</v>
       </c>
       <c r="C92" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N92" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O92" s="10"/>
       <c r="P92" s="11" t="s">
@@ -3591,10 +3352,10 @@
         <v>58</v>
       </c>
       <c r="S92" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>234</v>
       </c>
@@ -3602,16 +3363,16 @@
         <v>235</v>
       </c>
       <c r="C93" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N93" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S93" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>236</v>
       </c>
@@ -3619,13 +3380,13 @@
         <v>237</v>
       </c>
       <c r="C94" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T94" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="15.75" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>238</v>
       </c>
@@ -3633,22 +3394,22 @@
         <v>239</v>
       </c>
       <c r="C95" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="11" t="s">
         <v>43</v>
       </c>
       <c r="S95" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>240</v>
       </c>
@@ -3656,16 +3417,16 @@
         <v>241</v>
       </c>
       <c r="C96" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S96" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="15.75" customHeight="1">
       <c r="A97" s="13" t="s">
         <v>242</v>
       </c>
@@ -3673,10 +3434,10 @@
         <v>243</v>
       </c>
       <c r="C97" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="15.75" customHeight="1">
       <c r="A98" s="13" t="s">
         <v>244</v>
       </c>
@@ -3684,13 +3445,13 @@
         <v>245</v>
       </c>
       <c r="D98" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M98" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="15.75" customHeight="1">
       <c r="A99" s="13" t="s">
         <v>246</v>
       </c>
@@ -3698,10 +3459,10 @@
         <v>247</v>
       </c>
       <c r="D99" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="15.75" customHeight="1">
       <c r="A100" s="13" t="s">
         <v>248</v>
       </c>
@@ -3709,13 +3470,13 @@
         <v>249</v>
       </c>
       <c r="D100" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="15.75" customHeight="1">
       <c r="A101" s="13" t="s">
         <v>250</v>
       </c>
@@ -3723,13 +3484,13 @@
         <v>251</v>
       </c>
       <c r="D101" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M101" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="15.75" customHeight="1">
       <c r="A102" s="13" t="s">
         <v>252</v>
       </c>
@@ -3737,20 +3498,20 @@
         <v>253</v>
       </c>
       <c r="C102" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M102" s="10"/>
       <c r="O102" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S102" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="15.75" customHeight="1">
       <c r="A103" s="13" t="s">
         <v>254</v>
       </c>
@@ -3758,16 +3519,16 @@
         <v>255</v>
       </c>
       <c r="C103" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S103" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="15.75" customHeight="1">
       <c r="A104" s="13" t="s">
         <v>256</v>
       </c>
@@ -3775,16 +3536,16 @@
         <v>257</v>
       </c>
       <c r="C104" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S104" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="15.75" customHeight="1">
       <c r="A105" s="13" t="s">
         <v>258</v>
       </c>
@@ -3792,13 +3553,13 @@
         <v>259</v>
       </c>
       <c r="C105" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S105" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="15.75" customHeight="1">
       <c r="A106" s="13" t="s">
         <v>260</v>
       </c>
@@ -3806,13 +3567,13 @@
         <v>261</v>
       </c>
       <c r="C106" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O106" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15.75" customHeight="1">
       <c r="A107" s="13" t="s">
         <v>262</v>
       </c>
@@ -3820,13 +3581,13 @@
         <v>263</v>
       </c>
       <c r="D107" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="15.75" customHeight="1">
       <c r="A108" s="13" t="s">
         <v>264</v>
       </c>
@@ -3834,13 +3595,13 @@
         <v>265</v>
       </c>
       <c r="D108" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="15.75" customHeight="1">
       <c r="A109" s="11" t="s">
         <v>266</v>
       </c>
@@ -3848,4101 +3609,2688 @@
         <v>267</v>
       </c>
       <c r="C109" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S109" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="15.75" customHeight="1">
       <c r="B110" s="15"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:19" ht="15.75" customHeight="1">
       <c r="B111" s="15"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:19" ht="15.75" customHeight="1">
       <c r="B112" s="15"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="2:2" ht="15.75" customHeight="1">
       <c r="B113" s="15"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="2:2" ht="15.75" customHeight="1">
       <c r="B114" s="15"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="2:2" ht="15.75" customHeight="1">
       <c r="B115" s="15"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="2:2" ht="15.75" customHeight="1">
       <c r="B116" s="15"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="2:2" ht="15.75" customHeight="1">
       <c r="B117" s="15"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="2:2" ht="15.75" customHeight="1">
       <c r="B118" s="15"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="2:2" ht="15.75" customHeight="1">
       <c r="B119" s="15"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="2:2" ht="15.75" customHeight="1">
       <c r="B120" s="15"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="2:2" ht="15.75" customHeight="1">
       <c r="B121" s="15"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="2:2" ht="15.75" customHeight="1">
       <c r="B122" s="15"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="2:2" ht="15.75" customHeight="1">
       <c r="B123" s="15"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="2:2" ht="15.75" customHeight="1">
       <c r="B124" s="15"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="2:2" ht="15.75" customHeight="1">
       <c r="B125" s="15"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="2:2" ht="15.75" customHeight="1">
       <c r="B126" s="15"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="2:2" ht="15.75" customHeight="1">
       <c r="B127" s="15"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="2:2" ht="15.75" customHeight="1">
       <c r="B128" s="15"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="2:2" ht="15.75" customHeight="1">
       <c r="B129" s="15"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="2:2" ht="15.75" customHeight="1">
       <c r="B130" s="15"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="2:2" ht="15.75" customHeight="1">
       <c r="B131" s="15"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="2:2" ht="15.75" customHeight="1">
       <c r="B132" s="15"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="2:2" ht="15.75" customHeight="1">
       <c r="B133" s="15"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="2:2" ht="15.75" customHeight="1">
       <c r="B134" s="15"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="2:2" ht="15.75" customHeight="1">
       <c r="B135" s="15"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="2:2" ht="15.75" customHeight="1">
       <c r="B136" s="15"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="2:2" ht="15.75" customHeight="1">
       <c r="B137" s="15"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="2:2" ht="15.75" customHeight="1">
       <c r="B138" s="15"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="2:2" ht="15.75" customHeight="1">
       <c r="B139" s="15"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="2:2" ht="15.75" customHeight="1">
       <c r="B140" s="15"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="2:2" ht="15.75" customHeight="1">
       <c r="B141" s="15"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="2:2" ht="15.75" customHeight="1">
       <c r="B142" s="15"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="2:2" ht="15.75" customHeight="1">
       <c r="B143" s="15"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="2:2" ht="15.75" customHeight="1">
       <c r="B144" s="15"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="2:2" ht="15.75" customHeight="1">
       <c r="B145" s="15"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="2:2" ht="15.75" customHeight="1">
       <c r="B146" s="15"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="2:2" ht="15.75" customHeight="1">
       <c r="B147" s="15"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="2:2" ht="15.75" customHeight="1">
       <c r="B148" s="15"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="2:2" ht="15.75" customHeight="1">
       <c r="B149" s="15"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="2:2" ht="15.75" customHeight="1">
       <c r="B150" s="15"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="2:2" ht="15.75" customHeight="1">
       <c r="B151" s="15"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="2:2" ht="15.75" customHeight="1">
       <c r="B152" s="15"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="2:2" ht="15.75" customHeight="1">
       <c r="B153" s="15"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="2:2" ht="15.75" customHeight="1">
       <c r="B154" s="15"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="2:2" ht="15.75" customHeight="1">
       <c r="B155" s="15"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="2:2" ht="15.75" customHeight="1">
       <c r="B156" s="15"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="2:2" ht="15.75" customHeight="1">
       <c r="B157" s="15"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="2:2" ht="15.75" customHeight="1">
       <c r="B158" s="15"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="2:2" ht="15.75" customHeight="1">
       <c r="B159" s="15"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="2:2" ht="15.75" customHeight="1">
       <c r="B160" s="15"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="2:2" ht="15.75" customHeight="1">
       <c r="B161" s="15"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="2:2" ht="15.75" customHeight="1">
       <c r="B162" s="15"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="2:2" ht="15.75" customHeight="1">
       <c r="B163" s="15"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="2:2" ht="15.75" customHeight="1">
       <c r="B164" s="15"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="2:2" ht="15.75" customHeight="1">
       <c r="B165" s="15"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="2:2" ht="15.75" customHeight="1">
       <c r="B166" s="15"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="2:2" ht="15.75" customHeight="1">
       <c r="B167" s="15"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="2:2" ht="15.75" customHeight="1">
       <c r="B168" s="15"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="2:2" ht="15.75" customHeight="1">
       <c r="B169" s="15"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="2:2" ht="15.75" customHeight="1">
       <c r="B170" s="15"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="2:2" ht="15.75" customHeight="1">
       <c r="B171" s="15"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="2:2" ht="15.75" customHeight="1">
       <c r="B172" s="15"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="2:2" ht="15.75" customHeight="1">
       <c r="B173" s="15"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="2:2" ht="15.75" customHeight="1">
       <c r="B174" s="15"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="2:2" ht="15.75" customHeight="1">
       <c r="B175" s="15"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="2:2" ht="15.75" customHeight="1">
       <c r="B176" s="15"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="2:2" ht="15.75" customHeight="1">
       <c r="B177" s="15"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="2:2" ht="15.75" customHeight="1">
       <c r="B178" s="15"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="2:2" ht="15.75" customHeight="1">
       <c r="B179" s="15"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="2:2" ht="15.75" customHeight="1">
       <c r="B180" s="15"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="2:2" ht="15.75" customHeight="1">
       <c r="B181" s="15"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="2:2" ht="15.75" customHeight="1">
       <c r="B182" s="15"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="2:2" ht="15.75" customHeight="1">
       <c r="B183" s="15"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="2:2" ht="15.75" customHeight="1">
       <c r="B184" s="15"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="2:2" ht="15.75" customHeight="1">
       <c r="B185" s="15"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="2:2" ht="15.75" customHeight="1">
       <c r="B186" s="15"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="2:2" ht="15.75" customHeight="1">
       <c r="B187" s="15"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="2:2" ht="15.75" customHeight="1">
       <c r="B188" s="15"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="2:2" ht="15.75" customHeight="1">
       <c r="B189" s="15"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="2:2" ht="15.75" customHeight="1">
       <c r="B190" s="15"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="2:2" ht="15.75" customHeight="1">
       <c r="B191" s="15"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="2:2" ht="15.75" customHeight="1">
       <c r="B192" s="15"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="2:2" ht="15.75" customHeight="1">
       <c r="B193" s="15"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="2:2" ht="15.75" customHeight="1">
       <c r="B194" s="15"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="2:2" ht="15.75" customHeight="1">
       <c r="B195" s="15"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="2:2" ht="15.75" customHeight="1">
       <c r="B196" s="15"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="2:2" ht="15.75" customHeight="1">
       <c r="B197" s="15"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="2:2" ht="15.75" customHeight="1">
       <c r="B198" s="15"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="2:2" ht="15.75" customHeight="1">
       <c r="B199" s="15"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="2:2" ht="15.75" customHeight="1">
       <c r="B200" s="15"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="2:2" ht="15.75" customHeight="1">
       <c r="B201" s="15"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="2:2" ht="15.75" customHeight="1">
       <c r="B202" s="15"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="2:2" ht="15.75" customHeight="1">
       <c r="B203" s="15"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="2:2" ht="15.75" customHeight="1">
       <c r="B204" s="15"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="2:2" ht="15.75" customHeight="1">
       <c r="B205" s="15"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="2:2" ht="15.75" customHeight="1">
       <c r="B206" s="15"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="2:2" ht="15.75" customHeight="1">
       <c r="B207" s="15"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="2:2" ht="15.75" customHeight="1">
       <c r="B208" s="15"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="2:2" ht="15.75" customHeight="1">
       <c r="B209" s="15"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="2:2" ht="15.75" customHeight="1">
       <c r="B210" s="15"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="2:2" ht="15.75" customHeight="1">
       <c r="B211" s="15"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="2:2" ht="15.75" customHeight="1">
       <c r="B212" s="15"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="2:2" ht="15.75" customHeight="1">
       <c r="B213" s="15"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="2:2" ht="15.75" customHeight="1">
       <c r="B214" s="15"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="2:2" ht="15.75" customHeight="1">
       <c r="B215" s="15"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="2:2" ht="15.75" customHeight="1">
       <c r="B216" s="15"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="2:2" ht="15.75" customHeight="1">
       <c r="B217" s="15"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="2:2" ht="15.75" customHeight="1">
       <c r="B218" s="15"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="2:2" ht="15.75" customHeight="1">
       <c r="B219" s="15"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="15"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="2:2" ht="15.75" customHeight="1">
       <c r="B221" s="15"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="2:2" ht="15.75" customHeight="1">
       <c r="B222" s="15"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="2:2" ht="15.75" customHeight="1">
       <c r="B223" s="15"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="2:2" ht="15.75" customHeight="1">
       <c r="B224" s="15"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="2:2" ht="15.75" customHeight="1">
       <c r="B225" s="15"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="2:2" ht="15.75" customHeight="1">
       <c r="B226" s="15"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="2:2" ht="15.75" customHeight="1">
       <c r="B227" s="15"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="2:2" ht="15.75" customHeight="1">
       <c r="B228" s="15"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="2:2" ht="15.75" customHeight="1">
       <c r="B229" s="15"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="2:2" ht="15.75" customHeight="1">
       <c r="B230" s="15"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="2:2" ht="15.75" customHeight="1">
       <c r="B231" s="15"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="2:2" ht="15.75" customHeight="1">
       <c r="B232" s="15"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="2:2" ht="15.75" customHeight="1">
       <c r="B233" s="15"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="2:2" ht="15.75" customHeight="1">
       <c r="B234" s="15"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="2:2" ht="15.75" customHeight="1">
       <c r="B235" s="15"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="2:2" ht="15.75" customHeight="1">
       <c r="B236" s="15"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="2:2" ht="15.75" customHeight="1">
       <c r="B237" s="15"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="2:2" ht="15.75" customHeight="1">
       <c r="B238" s="15"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="2:2" ht="15.75" customHeight="1">
       <c r="B239" s="15"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="2:2" ht="15.75" customHeight="1">
       <c r="B240" s="15"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1">
       <c r="B241" s="15"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1">
       <c r="B242" s="15"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1">
       <c r="B243" s="15"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1">
       <c r="B244" s="15"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1">
       <c r="B245" s="15"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1">
       <c r="B246" s="15"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1">
       <c r="B247" s="15"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1">
       <c r="B248" s="15"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1">
       <c r="B249" s="15"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1">
       <c r="B250" s="15"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1">
       <c r="B251" s="15"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1">
       <c r="B252" s="15"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1">
       <c r="B253" s="15"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1">
       <c r="B254" s="15"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1">
       <c r="B255" s="15"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1">
       <c r="B256" s="15"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1">
       <c r="B257" s="15"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1">
       <c r="B258" s="15"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1">
       <c r="B259" s="15"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1">
       <c r="B260" s="15"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1">
       <c r="B261" s="15"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1">
       <c r="B262" s="15"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1">
       <c r="B263" s="15"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1">
       <c r="B264" s="15"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1">
       <c r="B265" s="15"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1">
       <c r="B266" s="15"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1">
       <c r="B267" s="15"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1">
       <c r="B268" s="15"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1">
       <c r="B269" s="15"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1">
       <c r="B270" s="15"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1">
       <c r="B271" s="15"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1">
       <c r="B272" s="15"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1">
       <c r="B273" s="15"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1">
       <c r="B274" s="15"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1">
       <c r="B275" s="15"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1">
       <c r="B276" s="15"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1">
       <c r="B277" s="15"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1">
       <c r="B278" s="15"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1">
       <c r="B279" s="15"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1">
       <c r="B280" s="15"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1">
       <c r="B281" s="15"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1">
       <c r="B282" s="15"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1">
       <c r="B283" s="15"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1">
       <c r="B284" s="15"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1">
       <c r="B285" s="15"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1">
       <c r="B286" s="15"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1">
       <c r="B287" s="15"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1">
       <c r="B288" s="15"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1">
       <c r="B289" s="15"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1">
       <c r="B290" s="15"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1">
       <c r="B291" s="15"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1">
       <c r="B292" s="15"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1">
       <c r="B293" s="15"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1">
       <c r="B294" s="15"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1">
       <c r="B295" s="15"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1">
       <c r="B296" s="15"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1">
       <c r="B297" s="15"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1">
       <c r="B298" s="15"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1">
       <c r="B299" s="15"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1">
       <c r="B300" s="15"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1">
       <c r="B301" s="15"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1">
       <c r="B302" s="15"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1">
       <c r="B303" s="15"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1">
       <c r="B304" s="15"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1">
       <c r="B305" s="15"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1">
       <c r="B306" s="15"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1">
       <c r="B307" s="15"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1">
       <c r="B308" s="15"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1">
       <c r="B309" s="15"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1">
       <c r="B310" s="15"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1">
       <c r="B311" s="15"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1">
       <c r="B312" s="15"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1">
       <c r="B313" s="15"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1">
       <c r="B314" s="15"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1">
       <c r="B315" s="15"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1">
       <c r="B316" s="15"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1">
       <c r="B317" s="15"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1">
       <c r="B318" s="15"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1">
       <c r="B319" s="15"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1">
       <c r="B320" s="15"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1">
       <c r="B321" s="15"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1">
       <c r="B322" s="15"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1">
       <c r="B323" s="15"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1">
       <c r="B324" s="15"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1">
       <c r="B325" s="15"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1">
       <c r="B326" s="15"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1">
       <c r="B327" s="15"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1">
       <c r="B328" s="15"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1">
       <c r="B329" s="15"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1">
       <c r="B330" s="15"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1">
       <c r="B331" s="15"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1">
       <c r="B332" s="15"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1">
       <c r="B333" s="15"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1">
       <c r="B334" s="15"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1">
       <c r="B335" s="15"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1">
       <c r="B336" s="15"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1">
       <c r="B337" s="15"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1">
       <c r="B338" s="15"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1">
       <c r="B339" s="15"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1">
       <c r="B340" s="15"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1">
       <c r="B341" s="15"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1">
       <c r="B342" s="15"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1">
       <c r="B343" s="15"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1">
       <c r="B344" s="15"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1">
       <c r="B345" s="15"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1">
       <c r="B346" s="15"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1">
       <c r="B347" s="15"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1">
       <c r="B348" s="15"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1">
       <c r="B349" s="15"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1">
       <c r="B350" s="15"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1">
       <c r="B351" s="15"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1">
       <c r="B352" s="15"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1">
       <c r="B353" s="15"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1">
       <c r="B354" s="15"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1">
       <c r="B355" s="15"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1">
       <c r="B356" s="15"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1">
       <c r="B357" s="15"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1">
       <c r="B358" s="15"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1">
       <c r="B359" s="15"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1">
       <c r="B360" s="15"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1">
       <c r="B361" s="15"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1">
       <c r="B362" s="15"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1">
       <c r="B363" s="15"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1">
       <c r="B364" s="15"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1">
       <c r="B365" s="15"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1">
       <c r="B366" s="15"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1">
       <c r="B367" s="15"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1">
       <c r="B368" s="15"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1">
       <c r="B369" s="15"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1">
       <c r="B370" s="15"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1">
       <c r="B371" s="15"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1">
       <c r="B372" s="15"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1">
       <c r="B373" s="15"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1">
       <c r="B374" s="15"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1">
       <c r="B375" s="15"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1">
       <c r="B376" s="15"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1">
       <c r="B377" s="15"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1">
       <c r="B378" s="15"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1">
       <c r="B379" s="15"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1">
       <c r="B380" s="15"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1">
       <c r="B381" s="15"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1">
       <c r="B382" s="15"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1">
       <c r="B383" s="15"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1">
       <c r="B384" s="15"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1">
       <c r="B385" s="15"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="2:2" ht="15.75" customHeight="1">
       <c r="B386" s="15"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="2:2" ht="15.75" customHeight="1">
       <c r="B387" s="15"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="2:2" ht="15.75" customHeight="1">
       <c r="B388" s="15"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="2:2" ht="15.75" customHeight="1">
       <c r="B389" s="15"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="2:2" ht="15.75" customHeight="1">
       <c r="B390" s="15"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1">
       <c r="B391" s="15"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="2:2" ht="15.75" customHeight="1">
       <c r="B392" s="15"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1">
       <c r="B393" s="15"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1">
       <c r="B394" s="15"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="2:2" ht="15.75" customHeight="1">
       <c r="B395" s="15"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1">
       <c r="B396" s="15"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1">
       <c r="B397" s="15"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="2:2" ht="15.75" customHeight="1">
       <c r="B398" s="15"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="2:2" ht="15.75" customHeight="1">
       <c r="B399" s="15"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="2:2" ht="15.75" customHeight="1">
       <c r="B400" s="15"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="2:2" ht="15.75" customHeight="1">
       <c r="B401" s="15"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="2:2" ht="15.75" customHeight="1">
       <c r="B402" s="15"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1">
       <c r="B403" s="15"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1">
       <c r="B404" s="15"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="2:2" ht="15.75" customHeight="1">
       <c r="B405" s="15"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="2:2" ht="15.75" customHeight="1">
       <c r="B406" s="15"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1">
       <c r="B407" s="15"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="2:2" ht="15.75" customHeight="1">
       <c r="B408" s="15"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="2:2" ht="15.75" customHeight="1">
       <c r="B409" s="15"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1">
       <c r="B410" s="15"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="2:2" ht="15.75" customHeight="1">
       <c r="B411" s="15"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1">
       <c r="B412" s="15"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="2:2" ht="15.75" customHeight="1">
       <c r="B413" s="15"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="2:2" ht="15.75" customHeight="1">
       <c r="B414" s="15"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="2:2" ht="15.75" customHeight="1">
       <c r="B415" s="15"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="2:2" ht="15.75" customHeight="1">
       <c r="B416" s="15"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="2:2" ht="15.75" customHeight="1">
       <c r="B417" s="15"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="2:2" ht="15.75" customHeight="1">
       <c r="B418" s="15"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="2:2" ht="15.75" customHeight="1">
       <c r="B419" s="15"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="2:2" ht="15.75" customHeight="1">
       <c r="B420" s="15"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="2:2" ht="15.75" customHeight="1">
       <c r="B421" s="15"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1">
       <c r="B422" s="15"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1">
       <c r="B423" s="15"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1">
       <c r="B424" s="15"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1">
       <c r="B425" s="15"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="2:2" ht="15.75" customHeight="1">
       <c r="B426" s="15"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1">
       <c r="B427" s="15"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1">
       <c r="B428" s="15"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="2:2" ht="15.75" customHeight="1">
       <c r="B429" s="15"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1">
       <c r="B430" s="15"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1">
       <c r="B431" s="15"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="2:2" ht="15.75" customHeight="1">
       <c r="B432" s="15"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="2:2" ht="15.75" customHeight="1">
       <c r="B433" s="15"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="2:2" ht="15.75" customHeight="1">
       <c r="B434" s="15"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="2:2" ht="15.75" customHeight="1">
       <c r="B435" s="15"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1">
       <c r="B436" s="15"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1">
       <c r="B437" s="15"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1">
       <c r="B438" s="15"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1">
       <c r="B439" s="15"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1">
       <c r="B440" s="15"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1">
       <c r="B441" s="15"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="2:2" ht="15.75" customHeight="1">
       <c r="B442" s="15"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="2:2" ht="15.75" customHeight="1">
       <c r="B443" s="15"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1">
       <c r="B444" s="15"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1">
       <c r="B445" s="15"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1">
       <c r="B446" s="15"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1">
       <c r="B447" s="15"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1">
       <c r="B448" s="15"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="2:2" ht="15.75" customHeight="1">
       <c r="B449" s="15"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1">
       <c r="B450" s="15"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1">
       <c r="B451" s="15"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1">
       <c r="B452" s="15"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1">
       <c r="B453" s="15"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="2:2" ht="15.75" customHeight="1">
       <c r="B454" s="15"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="2:2" ht="15.75" customHeight="1">
       <c r="B455" s="15"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="2:2" ht="15.75" customHeight="1">
       <c r="B456" s="15"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="2:2" ht="15.75" customHeight="1">
       <c r="B457" s="15"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="2:2" ht="15.75" customHeight="1">
       <c r="B458" s="15"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="2:2" ht="15.75" customHeight="1">
       <c r="B459" s="15"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1">
       <c r="B460" s="15"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1">
       <c r="B461" s="15"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1">
       <c r="B462" s="15"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1">
       <c r="B463" s="15"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1">
       <c r="B464" s="15"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1">
       <c r="B465" s="15"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1">
       <c r="B466" s="15"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="2:2" ht="15.75" customHeight="1">
       <c r="B467" s="15"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="2:2" ht="15.75" customHeight="1">
       <c r="B468" s="15"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="2:2" ht="15.75" customHeight="1">
       <c r="B469" s="15"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="2:2" ht="15.75" customHeight="1">
       <c r="B470" s="15"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="2:2" ht="15.75" customHeight="1">
       <c r="B471" s="15"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="2:2" ht="15.75" customHeight="1">
       <c r="B472" s="15"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="2:2" ht="15.75" customHeight="1">
       <c r="B473" s="15"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="2:2" ht="15.75" customHeight="1">
       <c r="B474" s="15"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="2:2" ht="15.75" customHeight="1">
       <c r="B475" s="15"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="2:2" ht="15.75" customHeight="1">
       <c r="B476" s="15"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="2:2" ht="15.75" customHeight="1">
       <c r="B477" s="15"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="2:2" ht="15.75" customHeight="1">
       <c r="B478" s="15"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="2:2" ht="15.75" customHeight="1">
       <c r="B479" s="15"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="2:2" ht="15.75" customHeight="1">
       <c r="B480" s="15"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="2:2" ht="15.75" customHeight="1">
       <c r="B481" s="15"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="2:2" ht="15.75" customHeight="1">
       <c r="B482" s="15"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="2:2" ht="15.75" customHeight="1">
       <c r="B483" s="15"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="2:2" ht="15.75" customHeight="1">
       <c r="B484" s="15"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="2:2" ht="15.75" customHeight="1">
       <c r="B485" s="15"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="2:2" ht="15.75" customHeight="1">
       <c r="B486" s="15"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="2:2" ht="15.75" customHeight="1">
       <c r="B487" s="15"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="2:2" ht="15.75" customHeight="1">
       <c r="B488" s="15"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="2:2" ht="15.75" customHeight="1">
       <c r="B489" s="15"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="2:2" ht="15.75" customHeight="1">
       <c r="B490" s="15"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="2:2" ht="15.75" customHeight="1">
       <c r="B491" s="15"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="2:2" ht="15.75" customHeight="1">
       <c r="B492" s="15"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="2:2" ht="15.75" customHeight="1">
       <c r="B493" s="15"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="2:2" ht="15.75" customHeight="1">
       <c r="B494" s="15"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="2:2" ht="15.75" customHeight="1">
       <c r="B495" s="15"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="2:2" ht="15.75" customHeight="1">
       <c r="B496" s="15"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="2:2" ht="15.75" customHeight="1">
       <c r="B497" s="15"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="2:2" ht="15.75" customHeight="1">
       <c r="B498" s="15"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="2:2" ht="15.75" customHeight="1">
       <c r="B499" s="15"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="2:2" ht="15.75" customHeight="1">
       <c r="B500" s="15"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="2:2" ht="15.75" customHeight="1">
       <c r="B501" s="15"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="2:2" ht="15.75" customHeight="1">
       <c r="B502" s="15"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="2:2" ht="15.75" customHeight="1">
       <c r="B503" s="15"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="2:2" ht="15.75" customHeight="1">
       <c r="B504" s="15"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="2:2" ht="15.75" customHeight="1">
       <c r="B505" s="15"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="2:2" ht="15.75" customHeight="1">
       <c r="B506" s="15"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="2:2" ht="15.75" customHeight="1">
       <c r="B507" s="15"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="2:2" ht="15.75" customHeight="1">
       <c r="B508" s="15"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="2:2" ht="15.75" customHeight="1">
       <c r="B509" s="15"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="2:2" ht="15.75" customHeight="1">
       <c r="B510" s="15"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="2:2" ht="15.75" customHeight="1">
       <c r="B511" s="15"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="2:2" ht="15.75" customHeight="1">
       <c r="B512" s="15"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="2:2" ht="15.75" customHeight="1">
       <c r="B513" s="15"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="2:2" ht="15.75" customHeight="1">
       <c r="B514" s="15"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="2:2" ht="15.75" customHeight="1">
       <c r="B515" s="15"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="2:2" ht="15.75" customHeight="1">
       <c r="B516" s="15"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="2:2" ht="15.75" customHeight="1">
       <c r="B517" s="15"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="2:2" ht="15.75" customHeight="1">
       <c r="B518" s="15"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="2:2" ht="15.75" customHeight="1">
       <c r="B519" s="15"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="2:2" ht="15.75" customHeight="1">
       <c r="B520" s="15"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="2:2" ht="15.75" customHeight="1">
       <c r="B521" s="15"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="2:2" ht="15.75" customHeight="1">
       <c r="B522" s="15"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="2:2" ht="15.75" customHeight="1">
       <c r="B523" s="15"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="2:2" ht="15.75" customHeight="1">
       <c r="B524" s="15"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="2:2" ht="15.75" customHeight="1">
       <c r="B525" s="15"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="2:2" ht="15.75" customHeight="1">
       <c r="B526" s="15"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="2:2" ht="15.75" customHeight="1">
       <c r="B527" s="15"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="2:2" ht="15.75" customHeight="1">
       <c r="B528" s="15"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="2:2" ht="15.75" customHeight="1">
       <c r="B529" s="15"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="2:2" ht="15.75" customHeight="1">
       <c r="B530" s="15"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="2:2" ht="15.75" customHeight="1">
       <c r="B531" s="15"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="2:2" ht="15.75" customHeight="1">
       <c r="B532" s="15"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="2:2" ht="15.75" customHeight="1">
       <c r="B533" s="15"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="2:2" ht="15.75" customHeight="1">
       <c r="B534" s="15"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="2:2" ht="15.75" customHeight="1">
       <c r="B535" s="15"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="2:2" ht="15.75" customHeight="1">
       <c r="B536" s="15"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="2:2" ht="15.75" customHeight="1">
       <c r="B537" s="15"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="2:2" ht="15.75" customHeight="1">
       <c r="B538" s="15"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="2:2" ht="15.75" customHeight="1">
       <c r="B539" s="15"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="2:2" ht="15.75" customHeight="1">
       <c r="B540" s="15"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="2:2" ht="15.75" customHeight="1">
       <c r="B541" s="15"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="2:2" ht="15.75" customHeight="1">
       <c r="B542" s="15"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="2:2" ht="15.75" customHeight="1">
       <c r="B543" s="15"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="2:2" ht="15.75" customHeight="1">
       <c r="B544" s="15"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="2:2" ht="15.75" customHeight="1">
       <c r="B545" s="15"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="2:2" ht="15.75" customHeight="1">
       <c r="B546" s="15"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="2:2" ht="15.75" customHeight="1">
       <c r="B547" s="15"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="2:2" ht="15.75" customHeight="1">
       <c r="B548" s="15"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="2:2" ht="15.75" customHeight="1">
       <c r="B549" s="15"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="2:2" ht="15.75" customHeight="1">
       <c r="B550" s="15"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="2:2" ht="15.75" customHeight="1">
       <c r="B551" s="15"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="2:2" ht="15.75" customHeight="1">
       <c r="B552" s="15"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="2:2" ht="15.75" customHeight="1">
       <c r="B553" s="15"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="2:2" ht="15.75" customHeight="1">
       <c r="B554" s="15"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="2:2" ht="15.75" customHeight="1">
       <c r="B555" s="15"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="2:2" ht="15.75" customHeight="1">
       <c r="B556" s="15"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="2:2" ht="15.75" customHeight="1">
       <c r="B557" s="15"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="2:2" ht="15.75" customHeight="1">
       <c r="B558" s="15"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="2:2" ht="15.75" customHeight="1">
       <c r="B559" s="15"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="2:2" ht="15.75" customHeight="1">
       <c r="B560" s="15"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="2:2" ht="15.75" customHeight="1">
       <c r="B561" s="15"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="2:2" ht="15.75" customHeight="1">
       <c r="B562" s="15"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="2:2" ht="15.75" customHeight="1">
       <c r="B563" s="15"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="2:2" ht="15.75" customHeight="1">
       <c r="B564" s="15"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="2:2" ht="15.75" customHeight="1">
       <c r="B565" s="15"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="2:2" ht="15.75" customHeight="1">
       <c r="B566" s="15"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="2:2" ht="15.75" customHeight="1">
       <c r="B567" s="15"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="2:2" ht="15.75" customHeight="1">
       <c r="B568" s="15"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="2:2" ht="15.75" customHeight="1">
       <c r="B569" s="15"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="2:2" ht="15.75" customHeight="1">
       <c r="B570" s="15"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="2:2" ht="15.75" customHeight="1">
       <c r="B571" s="15"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="2:2" ht="15.75" customHeight="1">
       <c r="B572" s="15"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="2:2" ht="15.75" customHeight="1">
       <c r="B573" s="15"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="2:2" ht="15.75" customHeight="1">
       <c r="B574" s="15"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="2:2" ht="15.75" customHeight="1">
       <c r="B575" s="15"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="2:2" ht="15.75" customHeight="1">
       <c r="B576" s="15"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="2:2" ht="15.75" customHeight="1">
       <c r="B577" s="15"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="2:2" ht="15.75" customHeight="1">
       <c r="B578" s="15"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="2:2" ht="15.75" customHeight="1">
       <c r="B579" s="15"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="2:2" ht="15.75" customHeight="1">
       <c r="B580" s="15"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="2:2" ht="15.75" customHeight="1">
       <c r="B581" s="15"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="2:2" ht="15.75" customHeight="1">
       <c r="B582" s="15"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="2:2" ht="15.75" customHeight="1">
       <c r="B583" s="15"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="2:2" ht="15.75" customHeight="1">
       <c r="B584" s="15"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="2:2" ht="15.75" customHeight="1">
       <c r="B585" s="15"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="2:2" ht="15.75" customHeight="1">
       <c r="B586" s="15"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="2:2" ht="15.75" customHeight="1">
       <c r="B587" s="15"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="2:2" ht="15.75" customHeight="1">
       <c r="B588" s="15"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="2:2" ht="15.75" customHeight="1">
       <c r="B589" s="15"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="2:2" ht="15.75" customHeight="1">
       <c r="B590" s="15"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="2:2" ht="15.75" customHeight="1">
       <c r="B591" s="15"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="2:2" ht="15.75" customHeight="1">
       <c r="B592" s="15"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="2:2" ht="15.75" customHeight="1">
       <c r="B593" s="15"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="2:2" ht="15.75" customHeight="1">
       <c r="B594" s="15"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="2:2" ht="15.75" customHeight="1">
       <c r="B595" s="15"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="2:2" ht="15.75" customHeight="1">
       <c r="B596" s="15"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="2:2" ht="15.75" customHeight="1">
       <c r="B597" s="15"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="2:2" ht="15.75" customHeight="1">
       <c r="B598" s="15"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="2:2" ht="15.75" customHeight="1">
       <c r="B599" s="15"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="2:2" ht="15.75" customHeight="1">
       <c r="B600" s="15"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="2:2" ht="15.75" customHeight="1">
       <c r="B601" s="15"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="2:2" ht="15.75" customHeight="1">
       <c r="B602" s="15"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="2:2" ht="15.75" customHeight="1">
       <c r="B603" s="15"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="2:2" ht="15.75" customHeight="1">
       <c r="B604" s="15"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="2:2" ht="15.75" customHeight="1">
       <c r="B605" s="15"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="2:2" ht="15.75" customHeight="1">
       <c r="B606" s="15"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="2:2" ht="15.75" customHeight="1">
       <c r="B607" s="15"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="2:2" ht="15.75" customHeight="1">
       <c r="B608" s="15"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="2:2" ht="15.75" customHeight="1">
       <c r="B609" s="15"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="2:2" ht="15.75" customHeight="1">
       <c r="B610" s="15"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="2:2" ht="15.75" customHeight="1">
       <c r="B611" s="15"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="2:2" ht="15.75" customHeight="1">
       <c r="B612" s="15"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="2:2" ht="15.75" customHeight="1">
       <c r="B613" s="15"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="2:2" ht="15.75" customHeight="1">
       <c r="B614" s="15"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="2:2" ht="15.75" customHeight="1">
       <c r="B615" s="15"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="2:2" ht="15.75" customHeight="1">
       <c r="B616" s="15"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="2:2" ht="15.75" customHeight="1">
       <c r="B617" s="15"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="2:2" ht="15.75" customHeight="1">
       <c r="B618" s="15"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="2:2" ht="15.75" customHeight="1">
       <c r="B619" s="15"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="2:2" ht="15.75" customHeight="1">
       <c r="B620" s="15"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="2:2" ht="15.75" customHeight="1">
       <c r="B621" s="15"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="2:2" ht="15.75" customHeight="1">
       <c r="B622" s="15"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="2:2" ht="15.75" customHeight="1">
       <c r="B623" s="15"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="2:2" ht="15.75" customHeight="1">
       <c r="B624" s="15"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="2:2" ht="15.75" customHeight="1">
       <c r="B625" s="15"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="2:2" ht="15.75" customHeight="1">
       <c r="B626" s="15"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="2:2" ht="15.75" customHeight="1">
       <c r="B627" s="15"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="2:2" ht="15.75" customHeight="1">
       <c r="B628" s="15"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="2:2" ht="15.75" customHeight="1">
       <c r="B629" s="15"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="2:2" ht="15.75" customHeight="1">
       <c r="B630" s="15"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="2:2" ht="15.75" customHeight="1">
       <c r="B631" s="15"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="2:2" ht="15.75" customHeight="1">
       <c r="B632" s="15"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="2:2" ht="15.75" customHeight="1">
       <c r="B633" s="15"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="2:2" ht="15.75" customHeight="1">
       <c r="B634" s="15"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="2:2" ht="15.75" customHeight="1">
       <c r="B635" s="15"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="2:2" ht="15.75" customHeight="1">
       <c r="B636" s="15"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="2:2" ht="15.75" customHeight="1">
       <c r="B637" s="15"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="2:2" ht="15.75" customHeight="1">
       <c r="B638" s="15"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="2:2" ht="15.75" customHeight="1">
       <c r="B639" s="15"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="2:2" ht="15.75" customHeight="1">
       <c r="B640" s="15"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="2:2" ht="15.75" customHeight="1">
       <c r="B641" s="15"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="2:2" ht="15.75" customHeight="1">
       <c r="B642" s="15"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="2:2" ht="15.75" customHeight="1">
       <c r="B643" s="15"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="2:2" ht="15.75" customHeight="1">
       <c r="B644" s="15"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="2:2" ht="15.75" customHeight="1">
       <c r="B645" s="15"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="2:2" ht="15.75" customHeight="1">
       <c r="B646" s="15"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="2:2" ht="15.75" customHeight="1">
       <c r="B647" s="15"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="2:2" ht="15.75" customHeight="1">
       <c r="B648" s="15"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="2:2" ht="15.75" customHeight="1">
       <c r="B649" s="15"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="2:2" ht="15.75" customHeight="1">
       <c r="B650" s="15"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="2:2" ht="15.75" customHeight="1">
       <c r="B651" s="15"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="2:2" ht="15.75" customHeight="1">
       <c r="B652" s="15"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="2:2" ht="15.75" customHeight="1">
       <c r="B653" s="15"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="2:2" ht="15.75" customHeight="1">
       <c r="B654" s="15"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="2:2" ht="15.75" customHeight="1">
       <c r="B655" s="15"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="2:2" ht="15.75" customHeight="1">
       <c r="B656" s="15"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="2:2" ht="15.75" customHeight="1">
       <c r="B657" s="15"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="2:2" ht="15.75" customHeight="1">
       <c r="B658" s="15"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="2:2" ht="15.75" customHeight="1">
       <c r="B659" s="15"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="2:2" ht="15.75" customHeight="1">
       <c r="B660" s="15"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="2:2" ht="15.75" customHeight="1">
       <c r="B661" s="15"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="2:2" ht="15.75" customHeight="1">
       <c r="B662" s="15"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="2:2" ht="15.75" customHeight="1">
       <c r="B663" s="15"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="2:2" ht="15.75" customHeight="1">
       <c r="B664" s="15"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="2:2" ht="15.75" customHeight="1">
       <c r="B665" s="15"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="2:2" ht="15.75" customHeight="1">
       <c r="B666" s="15"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="2:2" ht="15.75" customHeight="1">
       <c r="B667" s="15"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="2:2" ht="15.75" customHeight="1">
       <c r="B668" s="15"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="2:2" ht="15.75" customHeight="1">
       <c r="B669" s="15"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="2:2" ht="15.75" customHeight="1">
       <c r="B670" s="15"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="2:2" ht="15.75" customHeight="1">
       <c r="B671" s="15"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="2:2" ht="15.75" customHeight="1">
       <c r="B672" s="15"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="2:2" ht="15.75" customHeight="1">
       <c r="B673" s="15"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="2:2" ht="15.75" customHeight="1">
       <c r="B674" s="15"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="2:2" ht="15.75" customHeight="1">
       <c r="B675" s="15"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="2:2" ht="15.75" customHeight="1">
       <c r="B676" s="15"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="2:2" ht="15.75" customHeight="1">
       <c r="B677" s="15"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="2:2" ht="15.75" customHeight="1">
       <c r="B678" s="15"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="2:2" ht="15.75" customHeight="1">
       <c r="B679" s="15"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="2:2" ht="15.75" customHeight="1">
       <c r="B680" s="15"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="2:2" ht="15.75" customHeight="1">
       <c r="B681" s="15"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="2:2" ht="15.75" customHeight="1">
       <c r="B682" s="15"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="2:2" ht="15.75" customHeight="1">
       <c r="B683" s="15"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="2:2" ht="15.75" customHeight="1">
       <c r="B684" s="15"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="2:2" ht="15.75" customHeight="1">
       <c r="B685" s="15"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="2:2" ht="15.75" customHeight="1">
       <c r="B686" s="15"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="2:2" ht="15.75" customHeight="1">
       <c r="B687" s="15"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="2:2" ht="15.75" customHeight="1">
       <c r="B688" s="15"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="2:2" ht="15.75" customHeight="1">
       <c r="B689" s="15"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="2:2" ht="15.75" customHeight="1">
       <c r="B690" s="15"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="2:2" ht="15.75" customHeight="1">
       <c r="B691" s="15"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="2:2" ht="15.75" customHeight="1">
       <c r="B692" s="15"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="2:2" ht="15.75" customHeight="1">
       <c r="B693" s="15"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="2:2" ht="15.75" customHeight="1">
       <c r="B694" s="15"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="2:2" ht="15.75" customHeight="1">
       <c r="B695" s="15"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="2:2" ht="15.75" customHeight="1">
       <c r="B696" s="15"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="2:2" ht="15.75" customHeight="1">
       <c r="B697" s="15"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="2:2" ht="15.75" customHeight="1">
       <c r="B698" s="15"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="2:2" ht="15.75" customHeight="1">
       <c r="B699" s="15"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="2:2" ht="15.75" customHeight="1">
       <c r="B700" s="15"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="2:2" ht="15.75" customHeight="1">
       <c r="B701" s="15"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="2:2" ht="15.75" customHeight="1">
       <c r="B702" s="15"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="2:2" ht="15.75" customHeight="1">
       <c r="B703" s="15"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="2:2" ht="15.75" customHeight="1">
       <c r="B704" s="15"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="2:2" ht="15.75" customHeight="1">
       <c r="B705" s="15"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="2:2" ht="15.75" customHeight="1">
       <c r="B706" s="15"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="2:2" ht="15.75" customHeight="1">
       <c r="B707" s="15"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="2:2" ht="15.75" customHeight="1">
       <c r="B708" s="15"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="2:2" ht="15.75" customHeight="1">
       <c r="B709" s="15"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="2:2" ht="15.75" customHeight="1">
       <c r="B710" s="15"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="2:2" ht="15.75" customHeight="1">
       <c r="B711" s="15"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="2:2" ht="15.75" customHeight="1">
       <c r="B712" s="15"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="2:2" ht="15.75" customHeight="1">
       <c r="B713" s="15"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="2:2" ht="15.75" customHeight="1">
       <c r="B714" s="15"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="2:2" ht="15.75" customHeight="1">
       <c r="B715" s="15"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="2:2" ht="15.75" customHeight="1">
       <c r="B716" s="15"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="2:2" ht="15.75" customHeight="1">
       <c r="B717" s="15"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="2:2" ht="15.75" customHeight="1">
       <c r="B718" s="15"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="2:2" ht="15.75" customHeight="1">
       <c r="B719" s="15"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="2:2" ht="15.75" customHeight="1">
       <c r="B720" s="15"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="2:2" ht="15.75" customHeight="1">
       <c r="B721" s="15"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="2:2" ht="15.75" customHeight="1">
       <c r="B722" s="15"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="2:2" ht="15.75" customHeight="1">
       <c r="B723" s="15"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="2:2" ht="15.75" customHeight="1">
       <c r="B724" s="15"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="2:2" ht="15.75" customHeight="1">
       <c r="B725" s="15"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="2:2" ht="15.75" customHeight="1">
       <c r="B726" s="15"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="2:2" ht="15.75" customHeight="1">
       <c r="B727" s="15"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="2:2" ht="15.75" customHeight="1">
       <c r="B728" s="15"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="2:2" ht="15.75" customHeight="1">
       <c r="B729" s="15"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="2:2" ht="15.75" customHeight="1">
       <c r="B730" s="15"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="2:2" ht="15.75" customHeight="1">
       <c r="B731" s="15"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="2:2" ht="15.75" customHeight="1">
       <c r="B732" s="15"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="2:2" ht="15.75" customHeight="1">
       <c r="B733" s="15"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="2:2" ht="15.75" customHeight="1">
       <c r="B734" s="15"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="2:2" ht="15.75" customHeight="1">
       <c r="B735" s="15"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="2:2" ht="15.75" customHeight="1">
       <c r="B736" s="15"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="2:2" ht="15.75" customHeight="1">
       <c r="B737" s="15"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="2:2" ht="15.75" customHeight="1">
       <c r="B738" s="15"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="2:2" ht="15.75" customHeight="1">
       <c r="B739" s="15"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="2:2" ht="15.75" customHeight="1">
       <c r="B740" s="15"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="2:2" ht="15.75" customHeight="1">
       <c r="B741" s="15"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="2:2" ht="15.75" customHeight="1">
       <c r="B742" s="15"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="2:2" ht="15.75" customHeight="1">
       <c r="B743" s="15"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="2:2" ht="15.75" customHeight="1">
       <c r="B744" s="15"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="2:2" ht="15.75" customHeight="1">
       <c r="B745" s="15"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="2:2" ht="15.75" customHeight="1">
       <c r="B746" s="15"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="2:2" ht="15.75" customHeight="1">
       <c r="B747" s="15"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="2:2" ht="15.75" customHeight="1">
       <c r="B748" s="15"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="2:2" ht="15.75" customHeight="1">
       <c r="B749" s="15"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="2:2" ht="15.75" customHeight="1">
       <c r="B750" s="15"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="2:2" ht="15.75" customHeight="1">
       <c r="B751" s="15"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="2:2" ht="15.75" customHeight="1">
       <c r="B752" s="15"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="2:2" ht="15.75" customHeight="1">
       <c r="B753" s="15"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="2:2" ht="15.75" customHeight="1">
       <c r="B754" s="15"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="2:2" ht="15.75" customHeight="1">
       <c r="B755" s="15"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="2:2" ht="15.75" customHeight="1">
       <c r="B756" s="15"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="2:2" ht="15.75" customHeight="1">
       <c r="B757" s="15"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="2:2" ht="15.75" customHeight="1">
       <c r="B758" s="15"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="2:2" ht="15.75" customHeight="1">
       <c r="B759" s="15"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="2:2" ht="15.75" customHeight="1">
       <c r="B760" s="15"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="2:2" ht="15.75" customHeight="1">
       <c r="B761" s="15"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="2:2" ht="15.75" customHeight="1">
       <c r="B762" s="15"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="2:2" ht="15.75" customHeight="1">
       <c r="B763" s="15"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="2:2" ht="15.75" customHeight="1">
       <c r="B764" s="15"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="2:2" ht="15.75" customHeight="1">
       <c r="B765" s="15"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1">
       <c r="B766" s="15"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="2:2" ht="15.75" customHeight="1">
       <c r="B767" s="15"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="2:2" ht="15.75" customHeight="1">
       <c r="B768" s="15"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="2:2" ht="15.75" customHeight="1">
       <c r="B769" s="15"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="2:2" ht="15.75" customHeight="1">
       <c r="B770" s="15"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="2:2" ht="15.75" customHeight="1">
       <c r="B771" s="15"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="2:2" ht="15.75" customHeight="1">
       <c r="B772" s="15"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="2:2" ht="15.75" customHeight="1">
       <c r="B773" s="15"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="2:2" ht="15.75" customHeight="1">
       <c r="B774" s="15"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="2:2" ht="15.75" customHeight="1">
       <c r="B775" s="15"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="2:2" ht="15.75" customHeight="1">
       <c r="B776" s="15"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="2:2" ht="15.75" customHeight="1">
       <c r="B777" s="15"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="2:2" ht="15.75" customHeight="1">
       <c r="B778" s="15"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="2:2" ht="15.75" customHeight="1">
       <c r="B779" s="15"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="2:2" ht="15.75" customHeight="1">
       <c r="B780" s="15"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="2:2" ht="15.75" customHeight="1">
       <c r="B781" s="15"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="2:2" ht="15.75" customHeight="1">
       <c r="B782" s="15"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="2:2" ht="15.75" customHeight="1">
       <c r="B783" s="15"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="2:2" ht="15.75" customHeight="1">
       <c r="B784" s="15"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="2:2" ht="15.75" customHeight="1">
       <c r="B785" s="15"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="2:2" ht="15.75" customHeight="1">
       <c r="B786" s="15"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="2:2" ht="15.75" customHeight="1">
       <c r="B787" s="15"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="2:2" ht="15.75" customHeight="1">
       <c r="B788" s="15"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="2:2" ht="15.75" customHeight="1">
       <c r="B789" s="15"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="2:2" ht="15.75" customHeight="1">
       <c r="B790" s="15"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="2:2" ht="15.75" customHeight="1">
       <c r="B791" s="15"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="2:2" ht="15.75" customHeight="1">
       <c r="B792" s="15"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="2:2" ht="15.75" customHeight="1">
       <c r="B793" s="15"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="2:2" ht="15.75" customHeight="1">
       <c r="B794" s="15"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="2:2" ht="15.75" customHeight="1">
       <c r="B795" s="15"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="2:2" ht="15.75" customHeight="1">
       <c r="B796" s="15"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="2:2" ht="15.75" customHeight="1">
       <c r="B797" s="15"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="2:2" ht="15.75" customHeight="1">
       <c r="B798" s="15"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="2:2" ht="15.75" customHeight="1">
       <c r="B799" s="15"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="2:2" ht="15.75" customHeight="1">
       <c r="B800" s="15"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="2:2" ht="15.75" customHeight="1">
       <c r="B801" s="15"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="2:2" ht="15.75" customHeight="1">
       <c r="B802" s="15"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="2:2" ht="15.75" customHeight="1">
       <c r="B803" s="15"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="2:2" ht="15.75" customHeight="1">
       <c r="B804" s="15"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="2:2" ht="15.75" customHeight="1">
       <c r="B805" s="15"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="2:2" ht="15.75" customHeight="1">
       <c r="B806" s="15"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="2:2" ht="15.75" customHeight="1">
       <c r="B807" s="15"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="2:2" ht="15.75" customHeight="1">
       <c r="B808" s="15"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="2:2" ht="15.75" customHeight="1">
       <c r="B809" s="15"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="2:2" ht="15.75" customHeight="1">
       <c r="B810" s="15"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="2:2" ht="15.75" customHeight="1">
       <c r="B811" s="15"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="2:2" ht="15.75" customHeight="1">
       <c r="B812" s="15"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="2:2" ht="15.75" customHeight="1">
       <c r="B813" s="15"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="2:2" ht="15.75" customHeight="1">
       <c r="B814" s="15"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="2:2" ht="15.75" customHeight="1">
       <c r="B815" s="15"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="2:2" ht="15.75" customHeight="1">
       <c r="B816" s="15"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="2:2" ht="15.75" customHeight="1">
       <c r="B817" s="15"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="2:2" ht="15.75" customHeight="1">
       <c r="B818" s="15"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="2:2" ht="15.75" customHeight="1">
       <c r="B819" s="15"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="2:2" ht="15.75" customHeight="1">
       <c r="B820" s="15"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="2:2" ht="15.75" customHeight="1">
       <c r="B821" s="15"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="2:2" ht="15.75" customHeight="1">
       <c r="B822" s="15"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="2:2" ht="15.75" customHeight="1">
       <c r="B823" s="15"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="2:2" ht="15.75" customHeight="1">
       <c r="B824" s="15"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="2:2" ht="15.75" customHeight="1">
       <c r="B825" s="15"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="2:2" ht="15.75" customHeight="1">
       <c r="B826" s="15"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="2:2" ht="15.75" customHeight="1">
       <c r="B827" s="15"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="2:2" ht="15.75" customHeight="1">
       <c r="B828" s="15"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="2:2" ht="15.75" customHeight="1">
       <c r="B829" s="15"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="2:2" ht="15.75" customHeight="1">
       <c r="B830" s="15"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="2:2" ht="15.75" customHeight="1">
       <c r="B831" s="15"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="2:2" ht="15.75" customHeight="1">
       <c r="B832" s="15"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="2:2" ht="15.75" customHeight="1">
       <c r="B833" s="15"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="2:2" ht="15.75" customHeight="1">
       <c r="B834" s="15"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="2:2" ht="15.75" customHeight="1">
       <c r="B835" s="15"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="2:2" ht="15.75" customHeight="1">
       <c r="B836" s="15"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="2:2" ht="15.75" customHeight="1">
       <c r="B837" s="15"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="2:2" ht="15.75" customHeight="1">
       <c r="B838" s="15"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="2:2" ht="15.75" customHeight="1">
       <c r="B839" s="15"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="2:2" ht="15.75" customHeight="1">
       <c r="B840" s="15"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="2:2" ht="15.75" customHeight="1">
       <c r="B841" s="15"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="2:2" ht="15.75" customHeight="1">
       <c r="B842" s="15"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="2:2" ht="15.75" customHeight="1">
       <c r="B843" s="15"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="2:2" ht="15.75" customHeight="1">
       <c r="B844" s="15"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="2:2" ht="15.75" customHeight="1">
       <c r="B845" s="15"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="2:2" ht="15.75" customHeight="1">
       <c r="B846" s="15"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="2:2" ht="15.75" customHeight="1">
       <c r="B847" s="15"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="2:2" ht="15.75" customHeight="1">
       <c r="B848" s="15"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="2:2" ht="15.75" customHeight="1">
       <c r="B849" s="15"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="2:2" ht="15.75" customHeight="1">
       <c r="B850" s="15"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="2:2" ht="15.75" customHeight="1">
       <c r="B851" s="15"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="2:2" ht="15.75" customHeight="1">
       <c r="B852" s="15"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="2:2" ht="15.75" customHeight="1">
       <c r="B853" s="15"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="2:2" ht="15.75" customHeight="1">
       <c r="B854" s="15"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="2:2" ht="15.75" customHeight="1">
       <c r="B855" s="15"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="2:2" ht="15.75" customHeight="1">
       <c r="B856" s="15"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="2:2" ht="15.75" customHeight="1">
       <c r="B857" s="15"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="2:2" ht="15.75" customHeight="1">
       <c r="B858" s="15"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="2:2" ht="15.75" customHeight="1">
       <c r="B859" s="15"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="2:2" ht="15.75" customHeight="1">
       <c r="B860" s="15"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="2:2" ht="15.75" customHeight="1">
       <c r="B861" s="15"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="2:2" ht="15.75" customHeight="1">
       <c r="B862" s="15"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="2:2" ht="15.75" customHeight="1">
       <c r="B863" s="15"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="2:2" ht="15.75" customHeight="1">
       <c r="B864" s="15"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="2:2" ht="15.75" customHeight="1">
       <c r="B865" s="15"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="2:2" ht="15.75" customHeight="1">
       <c r="B866" s="15"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="2:2" ht="15.75" customHeight="1">
       <c r="B867" s="15"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="2:2" ht="15.75" customHeight="1">
       <c r="B868" s="15"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="2:2" ht="15.75" customHeight="1">
       <c r="B869" s="15"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="2:2" ht="15.75" customHeight="1">
       <c r="B870" s="15"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="2:2" ht="15.75" customHeight="1">
       <c r="B871" s="15"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="2:2" ht="15.75" customHeight="1">
       <c r="B872" s="15"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="2:2" ht="15.75" customHeight="1">
       <c r="B873" s="15"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="2:2" ht="15.75" customHeight="1">
       <c r="B874" s="15"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="2:2" ht="15.75" customHeight="1">
       <c r="B875" s="15"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="2:2" ht="15.75" customHeight="1">
       <c r="B876" s="15"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="2:2" ht="15.75" customHeight="1">
       <c r="B877" s="15"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="2:2" ht="15.75" customHeight="1">
       <c r="B878" s="15"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="2:2" ht="15.75" customHeight="1">
       <c r="B879" s="15"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="2:2" ht="15.75" customHeight="1">
       <c r="B880" s="15"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="2:2" ht="15.75" customHeight="1">
       <c r="B881" s="15"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="2:2" ht="15.75" customHeight="1">
       <c r="B882" s="15"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="2:2" ht="15.75" customHeight="1">
       <c r="B883" s="15"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="2:2" ht="15.75" customHeight="1">
       <c r="B884" s="15"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="2:2" ht="15.75" customHeight="1">
       <c r="B885" s="15"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="2:2" ht="15.75" customHeight="1">
       <c r="B886" s="15"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="2:2" ht="15.75" customHeight="1">
       <c r="B887" s="15"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="2:2" ht="15.75" customHeight="1">
       <c r="B888" s="15"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="2:2" ht="15.75" customHeight="1">
       <c r="B889" s="15"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="2:2" ht="15.75" customHeight="1">
       <c r="B890" s="15"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="2:2" ht="15.75" customHeight="1">
       <c r="B891" s="15"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="2:2" ht="15.75" customHeight="1">
       <c r="B892" s="15"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="2:2" ht="15.75" customHeight="1">
       <c r="B893" s="15"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="2:2" ht="15.75" customHeight="1">
       <c r="B894" s="15"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="2:2" ht="15.75" customHeight="1">
       <c r="B895" s="15"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="2:2" ht="15.75" customHeight="1">
       <c r="B896" s="15"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="2:2" ht="15.75" customHeight="1">
       <c r="B897" s="15"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="2:2" ht="15.75" customHeight="1">
       <c r="B898" s="15"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="2:2" ht="15.75" customHeight="1">
       <c r="B899" s="15"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="2:2" ht="15.75" customHeight="1">
       <c r="B900" s="15"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="2:2" ht="15.75" customHeight="1">
       <c r="B901" s="15"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="2:2" ht="15.75" customHeight="1">
       <c r="B902" s="15"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="2:2" ht="15.75" customHeight="1">
       <c r="B903" s="15"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="2:2" ht="15.75" customHeight="1">
       <c r="B904" s="15"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="2:2" ht="15.75" customHeight="1">
       <c r="B905" s="15"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="2:2" ht="15.75" customHeight="1">
       <c r="B906" s="15"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="2:2" ht="15.75" customHeight="1">
       <c r="B907" s="15"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="2:2" ht="15.75" customHeight="1">
       <c r="B908" s="15"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="2:2" ht="15.75" customHeight="1">
       <c r="B909" s="15"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="2:2" ht="15.75" customHeight="1">
       <c r="B910" s="15"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="2:2" ht="15.75" customHeight="1">
       <c r="B911" s="15"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="2:2" ht="15.75" customHeight="1">
       <c r="B912" s="15"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="2:2" ht="15.75" customHeight="1">
       <c r="B913" s="15"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="2:2" ht="15.75" customHeight="1">
       <c r="B914" s="15"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="2:2" ht="15.75" customHeight="1">
       <c r="B915" s="15"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="2:2" ht="15.75" customHeight="1">
       <c r="B916" s="15"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="2:2" ht="15.75" customHeight="1">
       <c r="B917" s="15"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="2:2" ht="15.75" customHeight="1">
       <c r="B918" s="15"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="2:2" ht="15.75" customHeight="1">
       <c r="B919" s="15"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="2:2" ht="15.75" customHeight="1">
       <c r="B920" s="15"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="2:2" ht="15.75" customHeight="1">
       <c r="B921" s="15"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="2:2" ht="15.75" customHeight="1">
       <c r="B922" s="15"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="2:2" ht="15.75" customHeight="1">
       <c r="B923" s="15"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="2:2" ht="15.75" customHeight="1">
       <c r="B924" s="15"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="2:2" ht="15.75" customHeight="1">
       <c r="B925" s="15"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="2:2" ht="15.75" customHeight="1">
       <c r="B926" s="15"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="2:2" ht="15.75" customHeight="1">
       <c r="B927" s="15"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="2:2" ht="15.75" customHeight="1">
       <c r="B928" s="15"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="2:2" ht="15.75" customHeight="1">
       <c r="B929" s="15"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="2:2" ht="15.75" customHeight="1">
       <c r="B930" s="15"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="2:2" ht="15.75" customHeight="1">
       <c r="B931" s="15"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="2:2" ht="15.75" customHeight="1">
       <c r="B932" s="15"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="2:2" ht="15.75" customHeight="1">
       <c r="B933" s="15"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="2:2" ht="15.75" customHeight="1">
       <c r="B934" s="15"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="2:2" ht="15.75" customHeight="1">
       <c r="B935" s="15"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="2:2" ht="15.75" customHeight="1">
       <c r="B936" s="15"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="2:2" ht="15.75" customHeight="1">
       <c r="B937" s="15"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="2:2" ht="15.75" customHeight="1">
       <c r="B938" s="15"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="2:2" ht="15.75" customHeight="1">
       <c r="B939" s="15"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="2:2" ht="15.75" customHeight="1">
       <c r="B940" s="15"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="2:2" ht="15.75" customHeight="1">
       <c r="B941" s="15"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="2:2" ht="15.75" customHeight="1">
       <c r="B942" s="15"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="2:2" ht="15.75" customHeight="1">
       <c r="B943" s="15"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="2:2" ht="15.75" customHeight="1">
       <c r="B944" s="15"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="2:2" ht="15.75" customHeight="1">
       <c r="B945" s="15"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="2:2" ht="15.75" customHeight="1">
       <c r="B946" s="15"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="2:2" ht="15.75" customHeight="1">
       <c r="B947" s="15"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="2:2" ht="15.75" customHeight="1">
       <c r="B948" s="15"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="2:2" ht="15.75" customHeight="1">
       <c r="B949" s="15"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="2:2" ht="15.75" customHeight="1">
       <c r="B950" s="15"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="2:2" ht="15.75" customHeight="1">
       <c r="B951" s="15"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="2:2" ht="15.75" customHeight="1">
       <c r="B952" s="15"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="2:2" ht="15.75" customHeight="1">
       <c r="B953" s="15"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="2:2" ht="15.75" customHeight="1">
       <c r="B954" s="15"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="2:2" ht="15.75" customHeight="1">
       <c r="B955" s="15"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="2:2" ht="15.75" customHeight="1">
       <c r="B956" s="15"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="2:2" ht="15.75" customHeight="1">
       <c r="B957" s="15"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="2:2" ht="15.75" customHeight="1">
       <c r="B958" s="15"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="2:2" ht="15.75" customHeight="1">
       <c r="B959" s="15"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="2:2" ht="15.75" customHeight="1">
       <c r="B960" s="15"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="2:2" ht="15.75" customHeight="1">
       <c r="B961" s="15"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="2:2" ht="15.75" customHeight="1">
       <c r="B962" s="15"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="2:2" ht="15.75" customHeight="1">
       <c r="B963" s="15"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="2:2" ht="15.75" customHeight="1">
       <c r="B964" s="15"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="2:2" ht="15.75" customHeight="1">
       <c r="B965" s="15"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="2:2" ht="15.75" customHeight="1">
       <c r="B966" s="15"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="2:2" ht="15.75" customHeight="1">
       <c r="B967" s="15"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="2:2" ht="15.75" customHeight="1">
       <c r="B968" s="15"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="2:2" ht="15.75" customHeight="1">
       <c r="B969" s="15"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="2:2" ht="15.75" customHeight="1">
       <c r="B970" s="15"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="2:2" ht="15.75" customHeight="1">
       <c r="B971" s="15"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="2:2" ht="15.75" customHeight="1">
       <c r="B972" s="15"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="2:2" ht="15.75" customHeight="1">
       <c r="B973" s="15"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="2:2" ht="15.75" customHeight="1">
       <c r="B974" s="15"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="2:2" ht="15.75" customHeight="1">
       <c r="B975" s="15"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="2:2" ht="15.75" customHeight="1">
       <c r="B976" s="15"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="2:2" ht="15.75" customHeight="1">
       <c r="B977" s="15"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="2:2" ht="15.75" customHeight="1">
       <c r="B978" s="15"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="2:2" ht="15.75" customHeight="1">
       <c r="B979" s="15"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="2:2" ht="15.75" customHeight="1">
       <c r="B980" s="15"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="2:2" ht="15.75" customHeight="1">
       <c r="B981" s="15"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="2:2" ht="15.75" customHeight="1">
       <c r="B982" s="15"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="2:2" ht="15.75" customHeight="1">
       <c r="B983" s="15"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="2:2" ht="15.75" customHeight="1">
       <c r="B984" s="15"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="2:2" ht="15.75" customHeight="1">
       <c r="B985" s="15"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="2:2" ht="15.75" customHeight="1">
       <c r="B986" s="15"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="2:2" ht="15.75" customHeight="1">
       <c r="B987" s="15"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="2:2" ht="15.75" customHeight="1">
       <c r="B988" s="15"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="2:2" ht="15.75" customHeight="1">
       <c r="B989" s="15"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="2:2" ht="15.75" customHeight="1">
       <c r="B990" s="15"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="2:2" ht="15.75" customHeight="1">
       <c r="B991" s="15"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="2:2" ht="15.75" customHeight="1">
       <c r="B992" s="15"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="2:2" ht="15.75" customHeight="1">
       <c r="B993" s="15"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="2:2" ht="15.75" customHeight="1">
       <c r="B994" s="15"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="2:2" ht="15.75" customHeight="1">
       <c r="B995" s="15"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="2:2" ht="15.75" customHeight="1">
       <c r="B996" s="15"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="2:2" ht="15.75" customHeight="1">
       <c r="B997" s="15"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="2:2" ht="15.75" customHeight="1">
       <c r="B998" s="15"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="2:2" ht="15.75" customHeight="1">
       <c r="B999" s="15"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="2:2" ht="15.75" customHeight="1">
       <c r="B1000" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$W$109"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:W109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="23.29"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="20"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="20"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="20"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="25"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="25"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="25"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="20"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="20"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D80" s="20"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="20"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="20"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="20"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="20"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D90" s="20"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" s="20"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" s="20"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="20"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="20"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="20"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="20"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="20"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D103" s="20"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" s="26"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D105" s="26"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="26"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D107" s="26"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D108" s="26"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D109" s="26"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" s="26"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D111" s="26"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="26"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D113" s="26"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D114" s="26"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" s="26"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D116" s="29"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="$A$1:$C$116"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>